--- a/ControlBlock v2.0/Протокол обмена.xlsx
+++ b/ControlBlock v2.0/Протокол обмена.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Адрес ведущего</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>CRC16</t>
+  </si>
+  <si>
+    <t>Длина пакета</t>
   </si>
 </sst>
 </file>
@@ -55,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -113,7 +122,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -415,20 +429,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F1"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="72.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,9 +454,12 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
